--- a/チェックシート_店舗詳細マップ修正.xlsx
+++ b/チェックシート_店舗詳細マップ修正.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -375,6 +375,10 @@
     <rPh sb="22" eb="24">
       <t>リヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ankh-teho</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1295,7 +1299,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1394,7 +1398,7 @@
     <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="38">
         <f>IF(F11&lt;&gt;"",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
@@ -1407,6 +1411,9 @@
       </c>
       <c r="E11" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1">
@@ -1788,7 +1795,7 @@
     <row r="11" spans="1:17" s="41" customFormat="1">
       <c r="A11" s="14">
         <f>確認項目!A11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="41">
         <f t="shared" si="0"/>
@@ -2390,7 +2397,7 @@
     <row r="40" spans="1:17" s="44" customFormat="1">
       <c r="A40" s="14">
         <f>確認項目!A11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="41">
         <f t="shared" si="1"/>
@@ -3000,7 +3007,7 @@
     <row r="71" spans="1:17" s="44" customFormat="1">
       <c r="A71" s="14">
         <f>確認項目!A11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="41">
         <f t="shared" si="2"/>
